--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="178">
   <si>
     <t>LimType</t>
   </si>
@@ -179,475 +179,478 @@
     <t>Solar</t>
   </si>
   <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>year2</t>
+  </si>
+  <si>
+    <t>SRVSC-CS</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>time_slice</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
     <t>process</t>
   </si>
   <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>scenario</t>
-  </si>
-  <si>
-    <t>time_slice</t>
-  </si>
-  <si>
-    <t>sow</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>National</t>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>~TFM_INS-TS</t>
+  </si>
+  <si>
+    <t>PSET_PN</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>Input to control ambient heat per unit of heat produced</t>
+  </si>
+  <si>
+    <t>FLO_SHAR</t>
+  </si>
+  <si>
+    <t>SRVAHT</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model (TIM)</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>SRV</t>
+  </si>
+  <si>
+    <t>Cell colour legend</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Model input</t>
+  </si>
+  <si>
+    <t>Model input based on own assumptions</t>
+  </si>
+  <si>
+    <t>Calculated value (not recommended to directly modify)</t>
+  </si>
+  <si>
+    <t>Codes for processes and commodities names</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Short code</t>
+  </si>
+  <si>
+    <t>Full code</t>
+  </si>
+  <si>
+    <t>Sub-sectors</t>
+  </si>
+  <si>
+    <t>Commercial Services</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Public Services</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>Thermal uses</t>
+  </si>
+  <si>
+    <t>Space heating</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Water heating</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>Space cooling</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Other uses</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Building lighting</t>
+  </si>
+  <si>
+    <t>LIG</t>
+  </si>
+  <si>
+    <t>Refrigeration</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>Other appliances</t>
+  </si>
+  <si>
+    <t>OEL</t>
+  </si>
+  <si>
+    <t>Data centers</t>
+  </si>
+  <si>
+    <t>DCE</t>
+  </si>
+  <si>
+    <t>Public lighting</t>
+  </si>
+  <si>
+    <t>PLIG</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>OTS</t>
+  </si>
+  <si>
+    <t>Fuels</t>
+  </si>
+  <si>
+    <t>Solids</t>
+  </si>
+  <si>
+    <t>SRVCOA</t>
+  </si>
+  <si>
+    <t>SRVLPG</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>SRVOIL</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>SRVGAS</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>SRVBIO</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>BGS</t>
+  </si>
+  <si>
+    <t>SRVBGS</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>SRVSOL</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>SRVELC</t>
+  </si>
+  <si>
+    <t>Ambient Heat</t>
+  </si>
+  <si>
+    <t>AHT</t>
+  </si>
+  <si>
+    <t>District heating</t>
+  </si>
+  <si>
+    <t>HET</t>
+  </si>
+  <si>
+    <t>SRVHET</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>SRVWIN</t>
+  </si>
+  <si>
+    <t>Hydrogen (gaseous)</t>
+  </si>
+  <si>
+    <t>H2G</t>
+  </si>
+  <si>
+    <t>SRVH2G</t>
+  </si>
+  <si>
+    <t>Hydrogen (liquid)</t>
+  </si>
+  <si>
+    <t>H2L</t>
+  </si>
+  <si>
+    <t>SRVH2L</t>
+  </si>
+  <si>
+    <t>BDL</t>
+  </si>
+  <si>
+    <t>SRVBDL</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>SRVETH</t>
+  </si>
+  <si>
+    <t>Veda fill table</t>
+  </si>
+  <si>
+    <t>SubRes data</t>
+  </si>
+  <si>
+    <t>Controller for Ambient Heat</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N2</t>
+  </si>
+  <si>
+    <t>SRVSH-CS</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N3</t>
+  </si>
+  <si>
+    <t>SRVWH-CS</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N4</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N5</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N6</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N7</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N8</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N9</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_N6</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N2</t>
+  </si>
+  <si>
+    <t>SRVSH-PU</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N3</t>
+  </si>
+  <si>
+    <t>SRVWH-PU</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N4</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N5</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N6</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N7</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N8</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N9</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_N6</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_N5</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_N5</t>
+  </si>
+  <si>
+    <t>S-SH*ELC_N*, S-SH*GAS_N5, S-SH*GAS_N6, -*N1</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>\I: Public services HPs - SH</t>
+  </si>
+  <si>
+    <t>\I: Commercial services HPs - SH</t>
+  </si>
+  <si>
+    <t>\I: Public services HPs -WH</t>
+  </si>
+  <si>
+    <t>\I: Commercial services HPs - WH</t>
+  </si>
+  <si>
+    <t>SRVAHT2</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Service sector (SRV)</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Specify utilisation of ambient heat by heat pumps</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
   </si>
   <si>
     <t>2030</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>SRVSC-CS</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>SRV_NewTechs</t>
   </si>
   <si>
     <t>SRVSC-PU</t>
-  </si>
-  <si>
-    <t>COA</t>
-  </si>
-  <si>
-    <t>Cooking</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
-  </si>
-  <si>
-    <t>CEFF</t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
-    <t>~TFM_INS-TS</t>
-  </si>
-  <si>
-    <t>PSET_PN</t>
-  </si>
-  <si>
-    <t>Cset_CN</t>
-  </si>
-  <si>
-    <t>Other_Indexes</t>
-  </si>
-  <si>
-    <t>Input to control ambient heat per unit of heat produced</t>
-  </si>
-  <si>
-    <t>FLO_SHAR</t>
-  </si>
-  <si>
-    <t>SRVAHT</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model (TIM)</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>SRV</t>
-  </si>
-  <si>
-    <t>Cell colour legend</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>Model input</t>
-  </si>
-  <si>
-    <t>Model input based on own assumptions</t>
-  </si>
-  <si>
-    <t>Calculated value (not recommended to directly modify)</t>
-  </si>
-  <si>
-    <t>Codes for processes and commodities names</t>
-  </si>
-  <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>Short code</t>
-  </si>
-  <si>
-    <t>Full code</t>
-  </si>
-  <si>
-    <t>Sub-sectors</t>
-  </si>
-  <si>
-    <t>Commercial Services</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Public Services</t>
-  </si>
-  <si>
-    <t>PU</t>
-  </si>
-  <si>
-    <t>Thermal uses</t>
-  </si>
-  <si>
-    <t>Space heating</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>Water heating</t>
-  </si>
-  <si>
-    <t>WH</t>
-  </si>
-  <si>
-    <t>Space cooling</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Other uses</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>Building lighting</t>
-  </si>
-  <si>
-    <t>LIG</t>
-  </si>
-  <si>
-    <t>Refrigeration</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>Other appliances</t>
-  </si>
-  <si>
-    <t>OEL</t>
-  </si>
-  <si>
-    <t>Data centers</t>
-  </si>
-  <si>
-    <t>DCE</t>
-  </si>
-  <si>
-    <t>Public lighting</t>
-  </si>
-  <si>
-    <t>PLIG</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>OTS</t>
-  </si>
-  <si>
-    <t>Fuels</t>
-  </si>
-  <si>
-    <t>Solids</t>
-  </si>
-  <si>
-    <t>SRVCOA</t>
-  </si>
-  <si>
-    <t>SRVLPG</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>SRVOIL</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>SRVGAS</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>BIO</t>
-  </si>
-  <si>
-    <t>SRVBIO</t>
-  </si>
-  <si>
-    <t>Biogas</t>
-  </si>
-  <si>
-    <t>BGS</t>
-  </si>
-  <si>
-    <t>SRVBGS</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>SRVSOL</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>SRVELC</t>
-  </si>
-  <si>
-    <t>Ambient Heat</t>
-  </si>
-  <si>
-    <t>AHT</t>
-  </si>
-  <si>
-    <t>District heating</t>
-  </si>
-  <si>
-    <t>HET</t>
-  </si>
-  <si>
-    <t>SRVHET</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>WIN</t>
-  </si>
-  <si>
-    <t>SRVWIN</t>
-  </si>
-  <si>
-    <t>Hydrogen (gaseous)</t>
-  </si>
-  <si>
-    <t>H2G</t>
-  </si>
-  <si>
-    <t>SRVH2G</t>
-  </si>
-  <si>
-    <t>Hydrogen (liquid)</t>
-  </si>
-  <si>
-    <t>H2L</t>
-  </si>
-  <si>
-    <t>SRVH2L</t>
-  </si>
-  <si>
-    <t>BDL</t>
-  </si>
-  <si>
-    <t>SRVBDL</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>SRVETH</t>
-  </si>
-  <si>
-    <t>Veda fill table</t>
-  </si>
-  <si>
-    <t>SubRes data</t>
-  </si>
-  <si>
-    <t>Controller for Ambient Heat</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N2</t>
-  </si>
-  <si>
-    <t>SRVSH-CS</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N3</t>
-  </si>
-  <si>
-    <t>SRVWH-CS</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N4</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N5</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N6</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N7</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N8</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N9</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_N6</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N2</t>
-  </si>
-  <si>
-    <t>SRVSH-PU</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N3</t>
-  </si>
-  <si>
-    <t>SRVWH-PU</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N4</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N5</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N6</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N7</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N8</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N9</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_N6</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_N5</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_N5</t>
-  </si>
-  <si>
-    <t>S-SH*ELC_N*, S-SH*GAS_N5, S-SH*GAS_N6, -*N1</t>
-  </si>
-  <si>
-    <t>SRV_NewTechs</t>
-  </si>
-  <si>
-    <t>\I: Public services HPs - SH</t>
-  </si>
-  <si>
-    <t>\I: Commercial services HPs - SH</t>
-  </si>
-  <si>
-    <t>\I: Public services HPs -WH</t>
-  </si>
-  <si>
-    <t>\I: Commercial services HPs - WH</t>
-  </si>
-  <si>
-    <t>SRVAHT2</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model</t>
-  </si>
-  <si>
-    <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Current maintainer(s):</t>
-  </si>
-  <si>
-    <t>Part of TIM version:</t>
-  </si>
-  <si>
-    <t>Model repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
-  </si>
-  <si>
-    <t>Licence:</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>Service sector (SRV)</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>Specify utilisation of ambient heat by heat pumps</t>
-  </si>
-  <si>
-    <t>commodity_group</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>lim_type</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
 </sst>
 </file>
@@ -791,14 +794,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499440014362335"/>
+      <color theme="7" tint="-0.499430000782013"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499440014362335"/>
+      <color theme="7" tint="-0.499430000782013"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -863,7 +866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149460002779961"/>
+        <fgColor theme="0" tint="-0.1494500041008"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1455,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4537" t="8853" r="7666" b="12844"/>
+        <a:srcRect l="4536" t="8851" r="7664" b="12843"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1579,7 +1582,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1287" t="6483" r="3930" b="6256"/>
+        <a:srcRect l="1286" t="6481" r="3929" b="6254"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1622,7 +1625,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3918" t="26118" r="3918" b="26116"/>
+        <a:srcRect l="3916" t="26116" r="3916" b="26115"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6671,7 +6674,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A98A00F-9DD7-420C-BB72-4F80FE1758C4}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="H167" sqref="H167"/>
@@ -6683,50 +6686,53 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
+    <row r="1" spans="1:14" ht="12.75">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="H1" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
         <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12.75">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -6738,25 +6744,25 @@
         <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L2">
         <v>2.1000000000000001</v>
@@ -6764,10 +6770,13 @@
       <c r="M2">
         <v>2.1000000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="12.75">
+      <c r="N2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -6779,25 +6788,25 @@
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L3">
         <v>2.2400000000000069</v>
@@ -6805,10 +6814,13 @@
       <c r="M3">
         <v>2.2400000000000069</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="12.75">
+      <c r="N3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="12.75">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -6820,25 +6832,25 @@
         <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L4">
         <v>2.5899999999999932</v>
@@ -6846,10 +6858,13 @@
       <c r="M4">
         <v>2.5899999999999932</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="12.75">
+      <c r="N4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="12.75">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -6861,25 +6876,25 @@
         <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L5">
         <v>2.7999999999999932</v>
@@ -6887,10 +6902,13 @@
       <c r="M5">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="12.75">
+      <c r="N5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="12.75">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -6902,25 +6920,25 @@
         <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L6">
         <v>2.7999999999999932</v>
@@ -6928,10 +6946,13 @@
       <c r="M6">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="12.75">
+      <c r="N6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12.75">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -6940,28 +6961,28 @@
         <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L7">
         <v>2.7466471585410202</v>
@@ -6969,10 +6990,13 @@
       <c r="M7">
         <v>2.7466471585410202</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="12.75">
+      <c r="N7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="12.75">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -6981,28 +7005,28 @@
         <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L8">
         <v>2.7466471585410202</v>
@@ -7010,10 +7034,13 @@
       <c r="M8">
         <v>2.7466471585410202</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="12.75">
+      <c r="N8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12.75">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -7022,28 +7049,28 @@
         <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L9">
         <v>2.7466471585410202</v>
@@ -7051,10 +7078,13 @@
       <c r="M9">
         <v>2.7466471585410202</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="12.75">
+      <c r="N9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="12.75">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -7063,28 +7093,28 @@
         <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L10">
         <v>2.7466471585410202</v>
@@ -7092,10 +7122,13 @@
       <c r="M10">
         <v>2.7466471585410202</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="12.75">
+      <c r="N10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="12.75">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -7104,28 +7137,28 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L11">
         <v>2.7466471585410202</v>
@@ -7133,10 +7166,13 @@
       <c r="M11">
         <v>2.7466471585410202</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="12.75">
+      <c r="N11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.75">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -7148,25 +7184,25 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L12">
         <v>2.1000000000000001</v>
@@ -7174,10 +7210,13 @@
       <c r="M12">
         <v>2.1000000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="12.75">
+      <c r="N12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="12.75">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -7189,25 +7228,25 @@
         <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L13">
         <v>2.2400000000000069</v>
@@ -7215,10 +7254,13 @@
       <c r="M13">
         <v>2.2400000000000069</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.75">
+      <c r="N13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="12.75">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -7230,25 +7272,25 @@
         <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L14">
         <v>2.5899999999999932</v>
@@ -7256,10 +7298,13 @@
       <c r="M14">
         <v>2.5899999999999932</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="12.75">
+      <c r="N14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="12.75">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -7271,25 +7316,25 @@
         <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L15">
         <v>2.7999999999999932</v>
@@ -7297,10 +7342,13 @@
       <c r="M15">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="12.75">
+      <c r="N15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="12.75">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -7312,25 +7360,25 @@
         <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L16">
         <v>2.7999999999999932</v>
@@ -7338,10 +7386,13 @@
       <c r="M16">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="12.75">
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="12.75">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -7353,25 +7404,25 @@
         <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L17">
         <v>2.1000000000000001</v>
@@ -7379,10 +7430,13 @@
       <c r="M17">
         <v>2.1000000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="12.75">
+      <c r="N17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="12.75">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -7394,25 +7448,25 @@
         <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L18">
         <v>2.3100000000000005</v>
@@ -7420,10 +7474,13 @@
       <c r="M18">
         <v>2.3100000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="12.75">
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="12.75">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -7435,25 +7492,25 @@
         <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L19">
         <v>2.5899999999999932</v>
@@ -7461,10 +7518,13 @@
       <c r="M19">
         <v>2.5899999999999932</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="12.75">
+      <c r="N19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="12.75">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -7476,25 +7536,25 @@
         <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L20">
         <v>2.7999999999999932</v>
@@ -7502,10 +7562,13 @@
       <c r="M20">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="12.75">
+      <c r="N20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="12.75">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -7517,25 +7580,25 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I21" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L21">
         <v>2.7999999999999932</v>
@@ -7543,10 +7606,13 @@
       <c r="M21">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="12.75">
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="12.75">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -7558,25 +7624,25 @@
         <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G22" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L22">
         <v>2.1000000000000001</v>
@@ -7584,10 +7650,13 @@
       <c r="M22">
         <v>2.1000000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="12.75">
+      <c r="N22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="12.75">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -7599,25 +7668,25 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I23" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L23">
         <v>2.3100000000000005</v>
@@ -7625,10 +7694,13 @@
       <c r="M23">
         <v>2.3100000000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="12.75">
+      <c r="N23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="12.75">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -7640,25 +7712,25 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I24" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L24">
         <v>2.5899999999999932</v>
@@ -7666,10 +7738,13 @@
       <c r="M24">
         <v>2.5899999999999932</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="12.75">
+      <c r="N24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12.75">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
@@ -7681,25 +7756,25 @@
         <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L25">
         <v>2.7999999999999932</v>
@@ -7707,10 +7782,13 @@
       <c r="M25">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="12.75">
+      <c r="N25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -7722,25 +7800,25 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I26" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K26" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L26">
         <v>2.7999999999999932</v>
@@ -7748,10 +7826,13 @@
       <c r="M26">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="12.75">
+      <c r="N26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -7763,25 +7844,25 @@
         <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I27" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K27" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L27">
         <v>1.47</v>
@@ -7789,10 +7870,13 @@
       <c r="M27">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="12.75">
+      <c r="N27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="12.75">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -7804,25 +7888,25 @@
         <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I28" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K28" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L28">
         <v>1.6170000000000002</v>
@@ -7830,10 +7914,13 @@
       <c r="M28">
         <v>1.6170000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="12.75">
+      <c r="N28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="12.75">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -7845,25 +7932,25 @@
         <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H29" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I29" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K29" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L29">
         <v>1.8129999999999993</v>
@@ -7871,10 +7958,13 @@
       <c r="M29">
         <v>1.8129999999999993</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="12.75">
+      <c r="N29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="12.75">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -7886,25 +7976,25 @@
         <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I30" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K30" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L30">
         <v>1.9599999999999995</v>
@@ -7912,10 +8002,13 @@
       <c r="M30">
         <v>1.9599999999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="12.75">
+      <c r="N30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="12.75">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -7927,25 +8020,25 @@
         <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I31" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K31" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L31">
         <v>1.9599999999999995</v>
@@ -7953,10 +8046,13 @@
       <c r="M31">
         <v>1.9599999999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="12.75">
+      <c r="N31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="12.75">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -7968,25 +8064,25 @@
         <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I32" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K32" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L32">
         <v>2.1000000000000001</v>
@@ -7994,10 +8090,13 @@
       <c r="M32">
         <v>2.1000000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="12.75">
+      <c r="N32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -8009,25 +8108,25 @@
         <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G33" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H33" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I33" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J33" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K33" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L33">
         <v>2.2890000000000001</v>
@@ -8035,10 +8134,13 @@
       <c r="M33">
         <v>2.2890000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="12.75">
+      <c r="N33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12.75">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -8050,25 +8152,25 @@
         <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H34" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I34" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K34" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L34">
         <v>2.531199999999993</v>
@@ -8076,10 +8178,13 @@
       <c r="M34">
         <v>2.531199999999993</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="12.75">
+      <c r="N34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="12.75">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -8091,25 +8196,25 @@
         <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K35" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L35">
         <v>2.7159999999999931</v>
@@ -8117,10 +8222,13 @@
       <c r="M35">
         <v>2.7159999999999931</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="12.75">
+      <c r="N35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="12.75">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -8132,25 +8240,25 @@
         <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H36" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I36" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J36" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K36" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L36">
         <v>2.7159999999999931</v>
@@ -8158,10 +8266,13 @@
       <c r="M36">
         <v>2.7159999999999931</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="12.75">
+      <c r="N36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="12.75">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -8173,25 +8284,25 @@
         <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G37" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I37" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K37" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L37">
         <v>2.9085000000000001</v>
@@ -8199,10 +8310,13 @@
       <c r="M37">
         <v>2.9085000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="12.75">
+      <c r="N37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -8214,25 +8328,25 @@
         <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G38" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H38" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I38" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J38" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K38" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L38">
         <v>3.0628500000000001</v>
@@ -8240,10 +8354,13 @@
       <c r="M38">
         <v>3.0628500000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="12.75">
+      <c r="N38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="12.75">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -8255,25 +8372,25 @@
         <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H39" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I39" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J39" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K39" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L39">
         <v>3.1017000000000001</v>
@@ -8281,10 +8398,13 @@
       <c r="M39">
         <v>3.1017000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="12.75">
+      <c r="N39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="12.75">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -8296,25 +8416,25 @@
         <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I40" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J40" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K40" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L40">
         <v>3.2340000000000004</v>
@@ -8322,10 +8442,13 @@
       <c r="M40">
         <v>3.2340000000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="12.75">
+      <c r="N40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="12.75">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -8337,25 +8460,25 @@
         <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H41" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I41" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J41" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K41" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L41">
         <v>3.2340000000000004</v>
@@ -8363,10 +8486,13 @@
       <c r="M41">
         <v>3.2340000000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="12.75">
+      <c r="N41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="12.75">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
@@ -8378,25 +8504,25 @@
         <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G42" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I42" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J42" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K42" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L42">
         <v>2.3100000000000005</v>
@@ -8404,10 +8530,13 @@
       <c r="M42">
         <v>2.3100000000000005</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="12.75">
+      <c r="N42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="12.75">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
@@ -8419,25 +8548,25 @@
         <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G43" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H43" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I43" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K43" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L43">
         <v>2.4500000000000073</v>
@@ -8445,10 +8574,13 @@
       <c r="M43">
         <v>2.4500000000000073</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="12.75">
+      <c r="N43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="12.75">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
@@ -8460,25 +8592,25 @@
         <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G44" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H44" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I44" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J44" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K44" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L44">
         <v>2.7999999999999932</v>
@@ -8486,10 +8618,13 @@
       <c r="M44">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="12.75">
+      <c r="N44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="12.75">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
         <v>37</v>
@@ -8501,25 +8636,25 @@
         <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I45" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J45" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K45" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L45">
         <v>3.1500000000000004</v>
@@ -8527,10 +8662,13 @@
       <c r="M45">
         <v>3.1500000000000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="12.75">
+      <c r="N45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="12.75">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
@@ -8542,25 +8680,25 @@
         <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H46" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I46" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J46" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K46" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L46">
         <v>3.1500000000000004</v>
@@ -8568,10 +8706,13 @@
       <c r="M46">
         <v>3.1500000000000004</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="12.75">
+      <c r="N46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="12.75">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -8580,28 +8721,28 @@
         <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I47" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J47" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K47" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L47">
         <v>3.0213118743951224</v>
@@ -8609,10 +8750,13 @@
       <c r="M47">
         <v>3.0213118743951224</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="12.75">
+      <c r="N47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="12.75">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -8621,28 +8765,28 @@
         <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G48" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H48" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I48" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J48" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K48" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L48">
         <v>3.2044216849645331</v>
@@ -8650,10 +8794,13 @@
       <c r="M48">
         <v>3.2044216849645331</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="12.75">
+      <c r="N48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="12.75">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -8662,28 +8809,28 @@
         <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G49" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H49" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I49" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J49" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K49" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L49">
         <v>3.6621962113880175</v>
@@ -8691,10 +8838,13 @@
       <c r="M49">
         <v>3.6621962113880175</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="12.75">
+      <c r="N49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="12.75">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B50" t="s">
         <v>37</v>
@@ -8703,28 +8853,28 @@
         <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I50" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J50" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K50" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L50">
         <v>4.1199707378115304</v>
@@ -8732,10 +8882,13 @@
       <c r="M50">
         <v>4.1199707378115304</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="12.75">
+      <c r="N50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="12.75">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -8744,28 +8897,28 @@
         <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H51" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I51" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J51" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K51" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L51">
         <v>4.1199707378115304</v>
@@ -8773,10 +8926,13 @@
       <c r="M51">
         <v>4.1199707378115304</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="12.75">
+      <c r="N51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="12.75">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -8788,25 +8944,25 @@
         <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G52" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I52" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J52" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K52" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L52">
         <v>2.3100000000000005</v>
@@ -8814,10 +8970,13 @@
       <c r="M52">
         <v>2.3100000000000005</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="12.75">
+      <c r="N52" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="12.75">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -8829,25 +8988,25 @@
         <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G53" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H53" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I53" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J53" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K53" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L53">
         <v>2.4500000000000073</v>
@@ -8855,10 +9014,13 @@
       <c r="M53">
         <v>2.4500000000000073</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="12.75">
+      <c r="N53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="12.75">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -8870,25 +9032,25 @@
         <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G54" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H54" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I54" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J54" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K54" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L54">
         <v>2.7999999999999932</v>
@@ -8896,10 +9058,13 @@
       <c r="M54">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="12.75">
+      <c r="N54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="12.75">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -8911,25 +9076,25 @@
         <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I55" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J55" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K55" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L55">
         <v>3.1500000000000004</v>
@@ -8937,10 +9102,13 @@
       <c r="M55">
         <v>3.1500000000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="12.75">
+      <c r="N55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="12.75">
       <c r="A56" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -8952,25 +9120,25 @@
         <v>126</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H56" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I56" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J56" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K56" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L56">
         <v>3.1500000000000004</v>
@@ -8978,10 +9146,13 @@
       <c r="M56">
         <v>3.1500000000000004</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="12.75">
+      <c r="N56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="12.75">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
@@ -8990,28 +9161,28 @@
         <v>135</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G57" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H57" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I57" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J57" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K57" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L57">
         <v>2.7466471585410202</v>
@@ -9019,10 +9190,13 @@
       <c r="M57">
         <v>2.7466471585410202</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="12.75">
+      <c r="N57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="12.75">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -9031,28 +9205,28 @@
         <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G58" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H58" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I58" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J58" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K58" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L58">
         <v>2.8382020638257122</v>
@@ -9060,10 +9234,13 @@
       <c r="M58">
         <v>2.8382020638257122</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="12.75">
+      <c r="N58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="12.75">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -9072,28 +9249,28 @@
         <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G59" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H59" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I59" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J59" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K59" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L59">
         <v>3.1128667796798135</v>
@@ -9101,10 +9278,13 @@
       <c r="M59">
         <v>3.1128667796798135</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="12.75">
+      <c r="N59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="12.75">
       <c r="A60" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
@@ -9113,28 +9293,28 @@
         <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I60" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J60" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K60" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L60">
         <v>3.2044216849645331</v>
@@ -9142,10 +9322,13 @@
       <c r="M60">
         <v>3.2044216849645331</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="12.75">
+      <c r="N60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="12.75">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
@@ -9154,28 +9337,28 @@
         <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I61" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J61" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K61" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L61">
         <v>3.2044216849645331</v>
@@ -9183,10 +9366,13 @@
       <c r="M61">
         <v>3.2044216849645331</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="12.75">
+      <c r="N61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="12.75">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
@@ -9198,25 +9384,25 @@
         <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G62" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I62" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J62" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K62" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L62">
         <v>2.1000000000000001</v>
@@ -9224,10 +9410,13 @@
       <c r="M62">
         <v>2.1000000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="12.75">
+      <c r="N62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="12.75">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
@@ -9239,25 +9428,25 @@
         <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G63" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H63" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I63" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J63" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K63" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L63">
         <v>2.1699999999999933</v>
@@ -9265,10 +9454,13 @@
       <c r="M63">
         <v>2.1699999999999933</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="12.75">
+      <c r="N63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="12.75">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -9280,25 +9472,25 @@
         <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G64" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H64" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I64" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J64" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K64" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L64">
         <v>2.3799999999999932</v>
@@ -9306,10 +9498,13 @@
       <c r="M64">
         <v>2.3799999999999932</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="12.75">
+      <c r="N64" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="12.75">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -9321,25 +9516,25 @@
         <v>126</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H65" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I65" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J65" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K65" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L65">
         <v>2.4500000000000073</v>
@@ -9347,10 +9542,13 @@
       <c r="M65">
         <v>2.4500000000000073</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="12.75">
+      <c r="N65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="12.75">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -9362,25 +9560,25 @@
         <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H66" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I66" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J66" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K66" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L66">
         <v>2.4500000000000073</v>
@@ -9388,10 +9586,13 @@
       <c r="M66">
         <v>2.4500000000000073</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="12.75">
+      <c r="N66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="12.75">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
@@ -9403,25 +9604,25 @@
         <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G67" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H67" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I67" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J67" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K67" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L67">
         <v>1.0230831673189618</v>
@@ -9429,10 +9630,13 @@
       <c r="M67">
         <v>1.0230831673189618</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="12.75">
+      <c r="N67" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="12.75">
       <c r="A68" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B68" t="s">
         <v>37</v>
@@ -9444,25 +9648,25 @@
         <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G68" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H68" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I68" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J68" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K68" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L68">
         <v>1.098867105638881</v>
@@ -9470,10 +9674,13 @@
       <c r="M68">
         <v>1.098867105638881</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="12.75">
+      <c r="N68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="12.75">
       <c r="A69" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
@@ -9485,25 +9692,25 @@
         <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G69" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H69" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I69" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J69" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K69" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L69">
         <v>1.288326951438691</v>
@@ -9511,10 +9718,13 @@
       <c r="M69">
         <v>1.288326951438691</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="12.75">
+      <c r="N69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="12.75">
       <c r="A70" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B70" t="s">
         <v>37</v>
@@ -9526,25 +9736,25 @@
         <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I70" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J70" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K70" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L70">
         <v>1.288326951438691</v>
@@ -9552,10 +9762,13 @@
       <c r="M70">
         <v>1.288326951438691</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="12.75">
+      <c r="N70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="12.75">
       <c r="A71" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B71" t="s">
         <v>37</v>
@@ -9567,25 +9780,25 @@
         <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H71" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I71" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J71" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K71" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L71">
         <v>1.288326951438691</v>
@@ -9593,10 +9806,13 @@
       <c r="M71">
         <v>1.288326951438691</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="12.75">
+      <c r="N71" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="12.75">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
@@ -9608,25 +9824,25 @@
         <v>128</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G72" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H72" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I72" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J72" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K72" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L72">
         <v>0.58390584482113206</v>
@@ -9634,10 +9850,13 @@
       <c r="M72">
         <v>0.58390584482113206</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="12.75">
+      <c r="N72" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="12.75">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B73" t="s">
         <v>37</v>
@@ -9649,25 +9868,25 @@
         <v>128</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G73" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H73" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I73" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J73" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K73" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L73">
         <v>0.62715812962269724</v>
@@ -9675,10 +9894,13 @@
       <c r="M73">
         <v>0.62715812962269724</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="12.75">
+      <c r="N73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="12.75">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B74" t="s">
         <v>37</v>
@@ -9690,25 +9912,25 @@
         <v>128</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G74" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H74" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I74" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J74" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K74" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L74">
         <v>0.73528884162661301</v>
@@ -9716,10 +9938,13 @@
       <c r="M74">
         <v>0.73528884162661301</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="12.75">
+      <c r="N74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="12.75">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
@@ -9731,25 +9956,25 @@
         <v>128</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H75" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I75" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J75" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K75" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L75">
         <v>0.73528884162661301</v>
@@ -9757,10 +9982,13 @@
       <c r="M75">
         <v>0.73528884162661301</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="12.75">
+      <c r="N75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="12.75">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B76" t="s">
         <v>37</v>
@@ -9772,25 +10000,25 @@
         <v>128</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H76" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I76" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J76" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K76" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L76">
         <v>0.73528884162661301</v>
@@ -9798,10 +10026,13 @@
       <c r="M76">
         <v>0.73528884162661301</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="12.75">
+      <c r="N76" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="12.75">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -9813,25 +10044,25 @@
         <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G77" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I77" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J77" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K77" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L77">
         <v>1.1367590747988445</v>
@@ -9839,10 +10070,13 @@
       <c r="M77">
         <v>1.1367590747988445</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="12.75">
+      <c r="N77" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="12.75">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
@@ -9854,25 +10088,25 @@
         <v>126</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G78" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H78" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I78" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J78" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K78" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L78">
         <v>1.1746510439588003</v>
@@ -9880,10 +10114,13 @@
       <c r="M78">
         <v>1.1746510439588003</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="12.75">
+      <c r="N78" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="12.75">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
@@ -9895,25 +10132,25 @@
         <v>126</v>
       </c>
       <c r="E79" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G79" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H79" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I79" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J79" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K79" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L79">
         <v>1.1746510439588003</v>
@@ -9921,10 +10158,13 @@
       <c r="M79">
         <v>1.1746510439588003</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="12.75">
+      <c r="N79" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="12.75">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
@@ -9936,25 +10176,25 @@
         <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I80" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J80" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K80" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L80">
         <v>1.2125430131187638</v>
@@ -9962,10 +10202,13 @@
       <c r="M80">
         <v>1.2125430131187638</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="12.75">
+      <c r="N80" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="12.75">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B81" t="s">
         <v>37</v>
@@ -9977,25 +10220,25 @@
         <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H81" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I81" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J81" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K81" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L81">
         <v>1.2125430131187638</v>
@@ -10003,10 +10246,13 @@
       <c r="M81">
         <v>1.2125430131187638</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="12.75">
+      <c r="N81" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="12.75">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B82" t="s">
         <v>37</v>
@@ -10018,25 +10264,25 @@
         <v>128</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G82" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H82" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I82" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J82" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K82" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L82">
         <v>0.64878427202347866</v>
@@ -10044,10 +10290,13 @@
       <c r="M82">
         <v>0.64878427202347866</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="12.75">
+      <c r="N82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="12.75">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B83" t="s">
         <v>37</v>
@@ -10059,25 +10308,25 @@
         <v>128</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G83" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H83" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I83" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J83" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K83" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L83">
         <v>0.67041041442426386</v>
@@ -10085,10 +10334,13 @@
       <c r="M83">
         <v>0.67041041442426386</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="12.75">
+      <c r="N83" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="12.75">
       <c r="A84" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
@@ -10100,25 +10352,25 @@
         <v>128</v>
       </c>
       <c r="E84" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G84" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H84" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I84" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J84" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K84" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L84">
         <v>0.67041041442426386</v>
@@ -10126,10 +10378,13 @@
       <c r="M84">
         <v>0.67041041442426386</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="12.75">
+      <c r="N84" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="12.75">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B85" t="s">
         <v>37</v>
@@ -10141,25 +10396,25 @@
         <v>128</v>
       </c>
       <c r="E85" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I85" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J85" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K85" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L85">
         <v>0.69203655682504261</v>
@@ -10167,10 +10422,13 @@
       <c r="M85">
         <v>0.69203655682504261</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="12.75">
+      <c r="N85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="12.75">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
         <v>37</v>
@@ -10182,25 +10440,25 @@
         <v>128</v>
       </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H86" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I86" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J86" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K86" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L86">
         <v>0.69203655682504261</v>
@@ -10208,10 +10466,13 @@
       <c r="M86">
         <v>0.69203655682504261</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="12.75">
+      <c r="N86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="12.75">
       <c r="A87" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B87" t="s">
         <v>37</v>
@@ -10223,25 +10484,25 @@
         <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G87" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H87" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I87" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J87" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K87" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L87">
         <v>2.1000000000000001</v>
@@ -10249,10 +10510,13 @@
       <c r="M87">
         <v>2.1000000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="12.75">
+      <c r="N87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="12.75">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B88" t="s">
         <v>37</v>
@@ -10264,25 +10528,25 @@
         <v>138</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G88" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H88" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I88" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J88" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K88" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L88">
         <v>2.2400000000000069</v>
@@ -10290,10 +10554,13 @@
       <c r="M88">
         <v>2.2400000000000069</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="12.75">
+      <c r="N88" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="12.75">
       <c r="A89" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B89" t="s">
         <v>37</v>
@@ -10305,25 +10572,25 @@
         <v>138</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G89" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H89" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I89" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J89" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K89" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L89">
         <v>2.5899999999999932</v>
@@ -10331,10 +10598,13 @@
       <c r="M89">
         <v>2.5899999999999932</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="12.75">
+      <c r="N89" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="12.75">
       <c r="A90" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
         <v>37</v>
@@ -10346,25 +10616,25 @@
         <v>138</v>
       </c>
       <c r="E90" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I90" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J90" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K90" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L90">
         <v>2.7999999999999932</v>
@@ -10372,10 +10642,13 @@
       <c r="M90">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="12.75">
+      <c r="N90" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="12.75">
       <c r="A91" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B91" t="s">
         <v>37</v>
@@ -10387,25 +10660,25 @@
         <v>138</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H91" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I91" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J91" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K91" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L91">
         <v>2.7999999999999932</v>
@@ -10413,10 +10686,13 @@
       <c r="M91">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="12.75">
+      <c r="N91" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="12.75">
       <c r="A92" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B92" t="s">
         <v>37</v>
@@ -10425,28 +10701,28 @@
         <v>139</v>
       </c>
       <c r="D92" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G92" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H92" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I92" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J92" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K92" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L92">
         <v>2.7466471585410202</v>
@@ -10454,10 +10730,13 @@
       <c r="M92">
         <v>2.7466471585410202</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="12.75">
+      <c r="N92" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="12.75">
       <c r="A93" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B93" t="s">
         <v>37</v>
@@ -10466,28 +10745,28 @@
         <v>139</v>
       </c>
       <c r="D93" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G93" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H93" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I93" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J93" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K93" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L93">
         <v>2.7466471585410202</v>
@@ -10495,10 +10774,13 @@
       <c r="M93">
         <v>2.7466471585410202</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" ht="12.75">
+      <c r="N93" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="12.75">
       <c r="A94" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B94" t="s">
         <v>37</v>
@@ -10507,28 +10789,28 @@
         <v>139</v>
       </c>
       <c r="D94" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G94" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H94" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I94" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J94" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K94" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L94">
         <v>2.7466471585410202</v>
@@ -10536,10 +10818,13 @@
       <c r="M94">
         <v>2.7466471585410202</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="12.75">
+      <c r="N94" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="12.75">
       <c r="A95" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B95" t="s">
         <v>37</v>
@@ -10548,28 +10833,28 @@
         <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I95" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J95" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K95" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L95">
         <v>2.7466471585410202</v>
@@ -10577,10 +10862,13 @@
       <c r="M95">
         <v>2.7466471585410202</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="12.75">
+      <c r="N95" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="12.75">
       <c r="A96" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B96" t="s">
         <v>37</v>
@@ -10589,28 +10877,28 @@
         <v>139</v>
       </c>
       <c r="D96" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="E96" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H96" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I96" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J96" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K96" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L96">
         <v>2.7466471585410202</v>
@@ -10618,10 +10906,13 @@
       <c r="M96">
         <v>2.7466471585410202</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="12.75">
+      <c r="N96" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="12.75">
       <c r="A97" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B97" t="s">
         <v>37</v>
@@ -10633,25 +10924,25 @@
         <v>138</v>
       </c>
       <c r="E97" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G97" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H97" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I97" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J97" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K97" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L97">
         <v>2.1000000000000001</v>
@@ -10659,10 +10950,13 @@
       <c r="M97">
         <v>2.1000000000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="12.75">
+      <c r="N97" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="12.75">
       <c r="A98" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B98" t="s">
         <v>37</v>
@@ -10674,25 +10968,25 @@
         <v>138</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G98" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H98" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I98" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J98" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K98" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L98">
         <v>2.2400000000000069</v>
@@ -10700,10 +10994,13 @@
       <c r="M98">
         <v>2.2400000000000069</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="12.75">
+      <c r="N98" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="12.75">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B99" t="s">
         <v>37</v>
@@ -10715,25 +11012,25 @@
         <v>138</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G99" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H99" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I99" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J99" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K99" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L99">
         <v>2.5899999999999932</v>
@@ -10741,10 +11038,13 @@
       <c r="M99">
         <v>2.5899999999999932</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="12.75">
+      <c r="N99" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="12.75">
       <c r="A100" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B100" t="s">
         <v>37</v>
@@ -10756,25 +11056,25 @@
         <v>138</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I100" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J100" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K100" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L100">
         <v>2.7999999999999932</v>
@@ -10782,10 +11082,13 @@
       <c r="M100">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="12.75">
+      <c r="N100" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="12.75">
       <c r="A101" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B101" t="s">
         <v>37</v>
@@ -10797,25 +11100,25 @@
         <v>138</v>
       </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H101" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I101" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J101" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K101" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L101">
         <v>2.7999999999999932</v>
@@ -10823,10 +11126,13 @@
       <c r="M101">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="12.75">
+      <c r="N101" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="12.75">
       <c r="A102" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B102" t="s">
         <v>37</v>
@@ -10838,25 +11144,25 @@
         <v>138</v>
       </c>
       <c r="E102" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G102" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H102" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I102" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J102" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K102" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L102">
         <v>2.1000000000000001</v>
@@ -10864,10 +11170,13 @@
       <c r="M102">
         <v>2.1000000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="12.75">
+      <c r="N102" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="12.75">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B103" t="s">
         <v>37</v>
@@ -10879,25 +11188,25 @@
         <v>138</v>
       </c>
       <c r="E103" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G103" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H103" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I103" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J103" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K103" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L103">
         <v>2.3100000000000005</v>
@@ -10905,10 +11214,13 @@
       <c r="M103">
         <v>2.3100000000000005</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="12.75">
+      <c r="N103" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="12.75">
       <c r="A104" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B104" t="s">
         <v>37</v>
@@ -10920,25 +11232,25 @@
         <v>138</v>
       </c>
       <c r="E104" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G104" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H104" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I104" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J104" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K104" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L104">
         <v>2.5899999999999932</v>
@@ -10946,10 +11258,13 @@
       <c r="M104">
         <v>2.5899999999999932</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="12.75">
+      <c r="N104" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="12.75">
       <c r="A105" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B105" t="s">
         <v>37</v>
@@ -10961,25 +11276,25 @@
         <v>138</v>
       </c>
       <c r="E105" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H105" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I105" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J105" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K105" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L105">
         <v>2.7999999999999932</v>
@@ -10987,10 +11302,13 @@
       <c r="M105">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="12.75">
+      <c r="N105" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="12.75">
       <c r="A106" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -11002,25 +11320,25 @@
         <v>138</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H106" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I106" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J106" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K106" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L106">
         <v>2.7999999999999932</v>
@@ -11028,10 +11346,13 @@
       <c r="M106">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="12.75">
+      <c r="N106" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="12.75">
       <c r="A107" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B107" t="s">
         <v>37</v>
@@ -11043,25 +11364,25 @@
         <v>138</v>
       </c>
       <c r="E107" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G107" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I107" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J107" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K107" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L107">
         <v>2.1000000000000001</v>
@@ -11069,10 +11390,13 @@
       <c r="M107">
         <v>2.1000000000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="12.75">
+      <c r="N107" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="12.75">
       <c r="A108" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B108" t="s">
         <v>37</v>
@@ -11084,25 +11408,25 @@
         <v>138</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G108" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H108" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I108" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J108" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K108" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L108">
         <v>2.3100000000000005</v>
@@ -11110,10 +11434,13 @@
       <c r="M108">
         <v>2.3100000000000005</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="12.75">
+      <c r="N108" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="12.75">
       <c r="A109" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
@@ -11125,25 +11452,25 @@
         <v>138</v>
       </c>
       <c r="E109" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G109" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H109" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I109" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J109" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K109" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L109">
         <v>2.5899999999999932</v>
@@ -11151,10 +11478,13 @@
       <c r="M109">
         <v>2.5899999999999932</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" ht="12.75">
+      <c r="N109" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="12.75">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B110" t="s">
         <v>37</v>
@@ -11166,25 +11496,25 @@
         <v>138</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H110" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I110" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J110" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K110" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L110">
         <v>2.7999999999999932</v>
@@ -11192,10 +11522,13 @@
       <c r="M110">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="12.75">
+      <c r="N110" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="12.75">
       <c r="A111" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B111" t="s">
         <v>37</v>
@@ -11207,25 +11540,25 @@
         <v>138</v>
       </c>
       <c r="E111" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H111" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I111" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J111" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K111" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L111">
         <v>2.7999999999999932</v>
@@ -11233,10 +11566,13 @@
       <c r="M111">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="12.75">
+      <c r="N111" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="12.75">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B112" t="s">
         <v>37</v>
@@ -11248,25 +11584,25 @@
         <v>140</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G112" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H112" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I112" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J112" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K112" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L112">
         <v>1.47</v>
@@ -11274,10 +11610,13 @@
       <c r="M112">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="12.75">
+      <c r="N112" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="12.75">
       <c r="A113" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B113" t="s">
         <v>37</v>
@@ -11289,25 +11628,25 @@
         <v>140</v>
       </c>
       <c r="E113" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G113" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H113" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I113" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J113" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K113" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L113">
         <v>1.6170000000000002</v>
@@ -11315,10 +11654,13 @@
       <c r="M113">
         <v>1.6170000000000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="12.75">
+      <c r="N113" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="12.75">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
@@ -11330,25 +11672,25 @@
         <v>140</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G114" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H114" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I114" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J114" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K114" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L114">
         <v>1.8129999999999993</v>
@@ -11356,10 +11698,13 @@
       <c r="M114">
         <v>1.8129999999999993</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" ht="12.75">
+      <c r="N114" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="12.75">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B115" t="s">
         <v>37</v>
@@ -11371,25 +11716,25 @@
         <v>140</v>
       </c>
       <c r="E115" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H115" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I115" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J115" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K115" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L115">
         <v>1.9599999999999995</v>
@@ -11397,10 +11742,13 @@
       <c r="M115">
         <v>1.9599999999999995</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" ht="12.75">
+      <c r="N115" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="12.75">
       <c r="A116" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
@@ -11412,25 +11760,25 @@
         <v>140</v>
       </c>
       <c r="E116" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H116" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I116" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J116" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K116" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L116">
         <v>1.9599999999999995</v>
@@ -11438,10 +11786,13 @@
       <c r="M116">
         <v>1.9599999999999995</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="12.75">
+      <c r="N116" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="12.75">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B117" t="s">
         <v>37</v>
@@ -11453,25 +11804,25 @@
         <v>138</v>
       </c>
       <c r="E117" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G117" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H117" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I117" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J117" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K117" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L117">
         <v>2.1000000000000001</v>
@@ -11479,10 +11830,13 @@
       <c r="M117">
         <v>2.1000000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" ht="12.75">
+      <c r="N117" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="12.75">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B118" t="s">
         <v>37</v>
@@ -11494,25 +11848,25 @@
         <v>138</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G118" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H118" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I118" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J118" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K118" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L118">
         <v>2.2890000000000001</v>
@@ -11520,10 +11874,13 @@
       <c r="M118">
         <v>2.2890000000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" ht="12.75">
+      <c r="N118" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="12.75">
       <c r="A119" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B119" t="s">
         <v>37</v>
@@ -11535,25 +11892,25 @@
         <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G119" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H119" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I119" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J119" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K119" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L119">
         <v>2.531199999999993</v>
@@ -11561,10 +11918,13 @@
       <c r="M119">
         <v>2.531199999999993</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" ht="12.75">
+      <c r="N119" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="12.75">
       <c r="A120" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B120" t="s">
         <v>37</v>
@@ -11576,25 +11936,25 @@
         <v>138</v>
       </c>
       <c r="E120" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H120" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I120" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J120" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K120" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L120">
         <v>2.7159999999999931</v>
@@ -11602,10 +11962,13 @@
       <c r="M120">
         <v>2.7159999999999931</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" ht="12.75">
+      <c r="N120" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="12.75">
       <c r="A121" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B121" t="s">
         <v>37</v>
@@ -11617,25 +11980,25 @@
         <v>138</v>
       </c>
       <c r="E121" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H121" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I121" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J121" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K121" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L121">
         <v>2.7159999999999931</v>
@@ -11643,10 +12006,13 @@
       <c r="M121">
         <v>2.7159999999999931</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" ht="12.75">
+      <c r="N121" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="12.75">
       <c r="A122" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B122" t="s">
         <v>37</v>
@@ -11658,25 +12024,25 @@
         <v>140</v>
       </c>
       <c r="E122" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G122" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H122" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I122" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J122" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K122" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L122">
         <v>2.9085000000000001</v>
@@ -11684,10 +12050,13 @@
       <c r="M122">
         <v>2.9085000000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" ht="12.75">
+      <c r="N122" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="12.75">
       <c r="A123" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B123" t="s">
         <v>37</v>
@@ -11699,25 +12068,25 @@
         <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G123" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H123" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I123" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J123" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K123" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L123">
         <v>3.0628500000000001</v>
@@ -11725,10 +12094,13 @@
       <c r="M123">
         <v>3.0628500000000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" ht="12.75">
+      <c r="N123" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="12.75">
       <c r="A124" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B124" t="s">
         <v>37</v>
@@ -11740,25 +12112,25 @@
         <v>140</v>
       </c>
       <c r="E124" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G124" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H124" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I124" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J124" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K124" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L124">
         <v>3.1017000000000001</v>
@@ -11766,10 +12138,13 @@
       <c r="M124">
         <v>3.1017000000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" ht="12.75">
+      <c r="N124" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="12.75">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B125" t="s">
         <v>37</v>
@@ -11781,25 +12156,25 @@
         <v>140</v>
       </c>
       <c r="E125" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H125" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I125" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J125" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K125" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L125">
         <v>3.2340000000000004</v>
@@ -11807,10 +12182,13 @@
       <c r="M125">
         <v>3.2340000000000004</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" ht="12.75">
+      <c r="N125" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="12.75">
       <c r="A126" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B126" t="s">
         <v>37</v>
@@ -11822,25 +12200,25 @@
         <v>140</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H126" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I126" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J126" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K126" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L126">
         <v>3.2340000000000004</v>
@@ -11848,10 +12226,13 @@
       <c r="M126">
         <v>3.2340000000000004</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" ht="12.75">
+      <c r="N126" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="12.75">
       <c r="A127" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B127" t="s">
         <v>37</v>
@@ -11863,25 +12244,25 @@
         <v>138</v>
       </c>
       <c r="E127" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G127" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I127" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J127" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K127" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L127">
         <v>2.3100000000000005</v>
@@ -11889,10 +12270,13 @@
       <c r="M127">
         <v>2.3100000000000005</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" ht="12.75">
+      <c r="N127" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="12.75">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B128" t="s">
         <v>37</v>
@@ -11904,25 +12288,25 @@
         <v>138</v>
       </c>
       <c r="E128" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G128" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H128" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I128" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J128" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K128" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L128">
         <v>2.4500000000000073</v>
@@ -11930,10 +12314,13 @@
       <c r="M128">
         <v>2.4500000000000073</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" ht="12.75">
+      <c r="N128" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="12.75">
       <c r="A129" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B129" t="s">
         <v>37</v>
@@ -11945,25 +12332,25 @@
         <v>138</v>
       </c>
       <c r="E129" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G129" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H129" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I129" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J129" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K129" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L129">
         <v>2.7999999999999932</v>
@@ -11971,10 +12358,13 @@
       <c r="M129">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" ht="12.75">
+      <c r="N129" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="12.75">
       <c r="A130" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B130" t="s">
         <v>37</v>
@@ -11986,25 +12376,25 @@
         <v>138</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H130" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I130" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J130" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K130" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L130">
         <v>3.1500000000000004</v>
@@ -12012,10 +12402,13 @@
       <c r="M130">
         <v>3.1500000000000004</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" ht="12.75">
+      <c r="N130" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="12.75">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B131" t="s">
         <v>37</v>
@@ -12027,25 +12420,25 @@
         <v>138</v>
       </c>
       <c r="E131" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H131" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I131" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J131" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K131" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L131">
         <v>3.1500000000000004</v>
@@ -12053,10 +12446,13 @@
       <c r="M131">
         <v>3.1500000000000004</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" ht="12.75">
+      <c r="N131" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="12.75">
       <c r="A132" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B132" t="s">
         <v>37</v>
@@ -12065,28 +12461,28 @@
         <v>146</v>
       </c>
       <c r="D132" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="E132" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G132" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H132" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I132" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J132" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K132" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L132">
         <v>3.0213118743951224</v>
@@ -12094,10 +12490,13 @@
       <c r="M132">
         <v>3.0213118743951224</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" ht="12.75">
+      <c r="N132" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="12.75">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B133" t="s">
         <v>37</v>
@@ -12106,28 +12505,28 @@
         <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G133" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H133" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I133" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J133" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K133" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L133">
         <v>3.2044216849645331</v>
@@ -12135,10 +12534,13 @@
       <c r="M133">
         <v>3.2044216849645331</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" ht="12.75">
+      <c r="N133" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="12.75">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B134" t="s">
         <v>37</v>
@@ -12147,28 +12549,28 @@
         <v>146</v>
       </c>
       <c r="D134" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="E134" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G134" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H134" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I134" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J134" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K134" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L134">
         <v>3.6621962113880175</v>
@@ -12176,10 +12578,13 @@
       <c r="M134">
         <v>3.6621962113880175</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" ht="12.75">
+      <c r="N134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="12.75">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B135" t="s">
         <v>37</v>
@@ -12188,28 +12593,28 @@
         <v>146</v>
       </c>
       <c r="D135" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="E135" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H135" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I135" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J135" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K135" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L135">
         <v>4.1199707378115304</v>
@@ -12217,10 +12622,13 @@
       <c r="M135">
         <v>4.1199707378115304</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" ht="12.75">
+      <c r="N135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="12.75">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B136" t="s">
         <v>37</v>
@@ -12229,28 +12637,28 @@
         <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="E136" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H136" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I136" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J136" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K136" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L136">
         <v>4.1199707378115304</v>
@@ -12258,10 +12666,13 @@
       <c r="M136">
         <v>4.1199707378115304</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" ht="12.75">
+      <c r="N136" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="12.75">
       <c r="A137" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B137" t="s">
         <v>37</v>
@@ -12273,25 +12684,25 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G137" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I137" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J137" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K137" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L137">
         <v>2.3100000000000005</v>
@@ -12299,10 +12710,13 @@
       <c r="M137">
         <v>2.3100000000000005</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" ht="12.75">
+      <c r="N137" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="12.75">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B138" t="s">
         <v>37</v>
@@ -12314,25 +12728,25 @@
         <v>138</v>
       </c>
       <c r="E138" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G138" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H138" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I138" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J138" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K138" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L138">
         <v>2.4500000000000073</v>
@@ -12340,10 +12754,13 @@
       <c r="M138">
         <v>2.4500000000000073</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" ht="12.75">
+      <c r="N138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="12.75">
       <c r="A139" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B139" t="s">
         <v>37</v>
@@ -12355,25 +12772,25 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G139" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H139" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I139" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J139" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K139" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L139">
         <v>2.7999999999999932</v>
@@ -12381,10 +12798,13 @@
       <c r="M139">
         <v>2.7999999999999932</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" ht="12.75">
+      <c r="N139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="12.75">
       <c r="A140" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B140" t="s">
         <v>37</v>
@@ -12396,25 +12816,25 @@
         <v>138</v>
       </c>
       <c r="E140" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H140" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I140" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J140" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K140" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L140">
         <v>3.1500000000000004</v>
@@ -12422,10 +12842,13 @@
       <c r="M140">
         <v>3.1500000000000004</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" ht="12.75">
+      <c r="N140" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="12.75">
       <c r="A141" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B141" t="s">
         <v>37</v>
@@ -12437,25 +12860,25 @@
         <v>138</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H141" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I141" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J141" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K141" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L141">
         <v>3.1500000000000004</v>
@@ -12463,10 +12886,13 @@
       <c r="M141">
         <v>3.1500000000000004</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" ht="12.75">
+      <c r="N141" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="12.75">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B142" t="s">
         <v>37</v>
@@ -12475,28 +12901,28 @@
         <v>147</v>
       </c>
       <c r="D142" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="E142" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G142" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H142" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I142" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J142" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K142" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L142">
         <v>2.7466471585410202</v>
@@ -12504,10 +12930,13 @@
       <c r="M142">
         <v>2.7466471585410202</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" ht="12.75">
+      <c r="N142" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="12.75">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B143" t="s">
         <v>37</v>
@@ -12516,28 +12945,28 @@
         <v>147</v>
       </c>
       <c r="D143" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="E143" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G143" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H143" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I143" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J143" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K143" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L143">
         <v>2.8382020638257122</v>
@@ -12545,10 +12974,13 @@
       <c r="M143">
         <v>2.8382020638257122</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" ht="12.75">
+      <c r="N143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="12.75">
       <c r="A144" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B144" t="s">
         <v>37</v>
@@ -12557,28 +12989,28 @@
         <v>147</v>
       </c>
       <c r="D144" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="E144" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G144" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H144" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I144" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J144" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K144" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L144">
         <v>3.1128667796798135</v>
@@ -12586,10 +13018,13 @@
       <c r="M144">
         <v>3.1128667796798135</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" ht="12.75">
+      <c r="N144" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="12.75">
       <c r="A145" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B145" t="s">
         <v>37</v>
@@ -12598,28 +13033,28 @@
         <v>147</v>
       </c>
       <c r="D145" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H145" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I145" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J145" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K145" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L145">
         <v>3.2044216849645331</v>
@@ -12627,10 +13062,13 @@
       <c r="M145">
         <v>3.2044216849645331</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" ht="12.75">
+      <c r="N145" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="12.75">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B146" t="s">
         <v>37</v>
@@ -12639,28 +13077,28 @@
         <v>147</v>
       </c>
       <c r="D146" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="E146" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H146" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I146" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J146" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K146" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L146">
         <v>3.2044216849645331</v>
@@ -12668,10 +13106,13 @@
       <c r="M146">
         <v>3.2044216849645331</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" ht="12.75">
+      <c r="N146" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="12.75">
       <c r="A147" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B147" t="s">
         <v>37</v>
@@ -12683,25 +13124,25 @@
         <v>138</v>
       </c>
       <c r="E147" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G147" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H147" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I147" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J147" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K147" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L147">
         <v>2.1000000000000001</v>
@@ -12709,10 +13150,13 @@
       <c r="M147">
         <v>2.1000000000000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" ht="12.75">
+      <c r="N147" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="12.75">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B148" t="s">
         <v>37</v>
@@ -12724,25 +13168,25 @@
         <v>138</v>
       </c>
       <c r="E148" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G148" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H148" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I148" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J148" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K148" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L148">
         <v>2.1699999999999933</v>
@@ -12750,10 +13194,13 @@
       <c r="M148">
         <v>2.1699999999999933</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" ht="12.75">
+      <c r="N148" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="12.75">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B149" t="s">
         <v>37</v>
@@ -12765,25 +13212,25 @@
         <v>138</v>
       </c>
       <c r="E149" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G149" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H149" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I149" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J149" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K149" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L149">
         <v>2.3799999999999932</v>
@@ -12791,10 +13238,13 @@
       <c r="M149">
         <v>2.3799999999999932</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" ht="12.75">
+      <c r="N149" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="12.75">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B150" t="s">
         <v>37</v>
@@ -12806,25 +13256,25 @@
         <v>138</v>
       </c>
       <c r="E150" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H150" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I150" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J150" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K150" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L150">
         <v>2.4500000000000073</v>
@@ -12832,10 +13282,13 @@
       <c r="M150">
         <v>2.4500000000000073</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" ht="12.75">
+      <c r="N150" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="12.75">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B151" t="s">
         <v>37</v>
@@ -12847,25 +13300,25 @@
         <v>138</v>
       </c>
       <c r="E151" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H151" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I151" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J151" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K151" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L151">
         <v>2.4500000000000073</v>
@@ -12873,10 +13326,13 @@
       <c r="M151">
         <v>2.4500000000000073</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" ht="12.75">
+      <c r="N151" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="12.75">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B152" t="s">
         <v>37</v>
@@ -12888,25 +13344,25 @@
         <v>138</v>
       </c>
       <c r="E152" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G152" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H152" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I152" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J152" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K152" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L152">
         <v>1.0230831673189618</v>
@@ -12914,10 +13370,13 @@
       <c r="M152">
         <v>1.0230831673189618</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" ht="12.75">
+      <c r="N152" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="12.75">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B153" t="s">
         <v>37</v>
@@ -12929,25 +13388,25 @@
         <v>138</v>
       </c>
       <c r="E153" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G153" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H153" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I153" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J153" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K153" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L153">
         <v>1.098867105638881</v>
@@ -12955,10 +13414,13 @@
       <c r="M153">
         <v>1.098867105638881</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" ht="12.75">
+      <c r="N153" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="12.75">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B154" t="s">
         <v>37</v>
@@ -12970,25 +13432,25 @@
         <v>138</v>
       </c>
       <c r="E154" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G154" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H154" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I154" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J154" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K154" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L154">
         <v>1.288326951438691</v>
@@ -12996,10 +13458,13 @@
       <c r="M154">
         <v>1.288326951438691</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" ht="12.75">
+      <c r="N154" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="12.75">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B155" t="s">
         <v>37</v>
@@ -13011,25 +13476,25 @@
         <v>138</v>
       </c>
       <c r="E155" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H155" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I155" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J155" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K155" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L155">
         <v>1.288326951438691</v>
@@ -13037,10 +13502,13 @@
       <c r="M155">
         <v>1.288326951438691</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" ht="12.75">
+      <c r="N155" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="12.75">
       <c r="A156" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B156" t="s">
         <v>37</v>
@@ -13052,25 +13520,25 @@
         <v>138</v>
       </c>
       <c r="E156" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H156" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I156" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J156" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K156" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L156">
         <v>1.288326951438691</v>
@@ -13078,10 +13546,13 @@
       <c r="M156">
         <v>1.288326951438691</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" ht="12.75">
+      <c r="N156" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="12.75">
       <c r="A157" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B157" t="s">
         <v>37</v>
@@ -13093,25 +13564,25 @@
         <v>140</v>
       </c>
       <c r="E157" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G157" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H157" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I157" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J157" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K157" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L157">
         <v>0.58390584482113206</v>
@@ -13119,10 +13590,13 @@
       <c r="M157">
         <v>0.58390584482113206</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" ht="12.75">
+      <c r="N157" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="12.75">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B158" t="s">
         <v>37</v>
@@ -13134,25 +13608,25 @@
         <v>140</v>
       </c>
       <c r="E158" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G158" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H158" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I158" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J158" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K158" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L158">
         <v>0.62715812962269724</v>
@@ -13160,10 +13634,13 @@
       <c r="M158">
         <v>0.62715812962269724</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" ht="12.75">
+      <c r="N158" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="12.75">
       <c r="A159" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B159" t="s">
         <v>37</v>
@@ -13175,25 +13652,25 @@
         <v>140</v>
       </c>
       <c r="E159" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G159" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H159" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I159" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J159" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K159" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L159">
         <v>0.73528884162661301</v>
@@ -13201,10 +13678,13 @@
       <c r="M159">
         <v>0.73528884162661301</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" ht="12.75">
+      <c r="N159" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="12.75">
       <c r="A160" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B160" t="s">
         <v>37</v>
@@ -13216,25 +13696,25 @@
         <v>140</v>
       </c>
       <c r="E160" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H160" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I160" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J160" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K160" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L160">
         <v>0.73528884162661301</v>
@@ -13242,10 +13722,13 @@
       <c r="M160">
         <v>0.73528884162661301</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" ht="12.75">
+      <c r="N160" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="12.75">
       <c r="A161" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B161" t="s">
         <v>37</v>
@@ -13257,25 +13740,25 @@
         <v>140</v>
       </c>
       <c r="E161" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H161" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I161" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J161" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K161" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L161">
         <v>0.73528884162661301</v>
@@ -13283,10 +13766,13 @@
       <c r="M161">
         <v>0.73528884162661301</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" ht="12.75">
+      <c r="N161" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="12.75">
       <c r="A162" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B162" t="s">
         <v>37</v>
@@ -13298,25 +13784,25 @@
         <v>138</v>
       </c>
       <c r="E162" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G162" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H162" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I162" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J162" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K162" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L162">
         <v>1.1367590747988445</v>
@@ -13324,10 +13810,13 @@
       <c r="M162">
         <v>1.1367590747988445</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" ht="12.75">
+      <c r="N162" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="12.75">
       <c r="A163" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B163" t="s">
         <v>37</v>
@@ -13339,25 +13828,25 @@
         <v>138</v>
       </c>
       <c r="E163" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G163" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H163" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I163" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J163" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K163" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L163">
         <v>1.1746510439588003</v>
@@ -13365,10 +13854,13 @@
       <c r="M163">
         <v>1.1746510439588003</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" ht="12.75">
+      <c r="N163" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="12.75">
       <c r="A164" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B164" t="s">
         <v>37</v>
@@ -13380,25 +13872,25 @@
         <v>138</v>
       </c>
       <c r="E164" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G164" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H164" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I164" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J164" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K164" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L164">
         <v>1.1746510439588003</v>
@@ -13406,10 +13898,13 @@
       <c r="M164">
         <v>1.1746510439588003</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" ht="12.75">
+      <c r="N164" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="12.75">
       <c r="A165" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B165" t="s">
         <v>37</v>
@@ -13421,25 +13916,25 @@
         <v>138</v>
       </c>
       <c r="E165" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H165" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I165" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J165" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K165" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L165">
         <v>1.2125430131187638</v>
@@ -13447,10 +13942,13 @@
       <c r="M165">
         <v>1.2125430131187638</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" ht="12.75">
+      <c r="N165" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="12.75">
       <c r="A166" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B166" t="s">
         <v>37</v>
@@ -13462,25 +13960,25 @@
         <v>138</v>
       </c>
       <c r="E166" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H166" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I166" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J166" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K166" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L166">
         <v>1.2125430131187638</v>
@@ -13488,10 +13986,13 @@
       <c r="M166">
         <v>1.2125430131187638</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" ht="12.75">
+      <c r="N166" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="12.75">
       <c r="A167" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B167" t="s">
         <v>37</v>
@@ -13503,25 +14004,25 @@
         <v>140</v>
       </c>
       <c r="E167" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G167" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H167" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I167" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J167" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K167" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L167">
         <v>0.64878427202347866</v>
@@ -13529,10 +14030,13 @@
       <c r="M167">
         <v>0.64878427202347866</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" ht="12.75">
+      <c r="N167" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="12.75">
       <c r="A168" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B168" t="s">
         <v>37</v>
@@ -13544,25 +14048,25 @@
         <v>140</v>
       </c>
       <c r="E168" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G168" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H168" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I168" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J168" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K168" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L168">
         <v>0.67041041442426386</v>
@@ -13570,10 +14074,13 @@
       <c r="M168">
         <v>0.67041041442426386</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" ht="12.75">
+      <c r="N168" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="12.75">
       <c r="A169" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B169" t="s">
         <v>37</v>
@@ -13585,25 +14092,25 @@
         <v>140</v>
       </c>
       <c r="E169" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G169" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H169" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I169" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J169" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K169" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L169">
         <v>0.67041041442426386</v>
@@ -13611,10 +14118,13 @@
       <c r="M169">
         <v>0.67041041442426386</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" ht="12.75">
+      <c r="N169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="12.75">
       <c r="A170" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B170" t="s">
         <v>37</v>
@@ -13626,25 +14136,25 @@
         <v>140</v>
       </c>
       <c r="E170" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H170" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I170" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J170" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K170" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L170">
         <v>0.69203655682504261</v>
@@ -13652,10 +14162,13 @@
       <c r="M170">
         <v>0.69203655682504261</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" ht="12.75">
+      <c r="N170" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="12.75">
       <c r="A171" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B171" t="s">
         <v>37</v>
@@ -13667,31 +14180,34 @@
         <v>140</v>
       </c>
       <c r="E171" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H171" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I171" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J171" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K171" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="L171">
         <v>0.69203655682504261</v>
       </c>
       <c r="M171">
         <v>0.69203655682504261</v>
+      </c>
+      <c r="N171" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
